--- a/Testes/UC01_Test_Scenario.xlsx
+++ b/Testes/UC01_Test_Scenario.xlsx
@@ -15,19 +15,22 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611676518" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611676518" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611676518" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611676518"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611933030" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611933030" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611933030" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611933030"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>Project Name</t>
+  </si>
+  <si>
+    <t>T4J - Tasks for Joe</t>
   </si>
   <si>
     <t>Module Name</t>
@@ -100,50 +103,30 @@
     <t>Test Case Steps</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <t>O colaborador inicia o registo de organização.
+    <t>1. O colaborador inicia o registo de organização.
 2. O sistema solicita os dados necessários (Nome Organização, NIF, Endereços, Contacto).
 3. O colaborador introduz os dados solicitados.
 4. O sistema valida e apresenta os dados ao colaborador, pedindo que os confirme.
 5. O colaborador confirma os dados.
 6. O sistema regista os dados e informa o colaborador do sucesso da operação.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <t>O colaborador solicita o cancelamento do registo da organização.
+  </si>
+  <si>
+    <t>1. O colaborador solicita o cancelamento do registo da organização.
 2. O caso de uso termina.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <t>Dados mínimos obrigatórios em falta.
+  </si>
+  <si>
+    <t>1. Dados mínimos obrigatórios em falta.
 2. O sistema informa quais os dados em falta.
 3. O sistema permite a introdução dos dados em falta.
 4. O colaborador não insere os dados.
 5. O caso de uso termina.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <t>O sistema deteta que os dados (ou algum subconjunto dos dados) introduzidos devem ser únicos e que já existem no sistema.
+  </si>
+  <si>
+    <t>1. O sistema deteta que os dados (ou algum subconjunto dos dados) introduzidos devem ser únicos e que já existem no sistema.
 2. O sistema alerta o colaborador para o facto.
 3. O sistema permite a sua alteração.
 4. O colaborador não altera os dados.
 5. O caso de uso termina.</t>
-    </r>
   </si>
   <si>
     <t>1. O utilizador não registado informa um email inválido.
@@ -331,7 +314,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -339,7 +322,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611933030" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -354,7 +337,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611933030" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -369,23 +352,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Arial" sz="220" lang="default"/>
-            <pm:ea face="Arial" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611933030" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -400,7 +367,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611676518" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611933030" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -422,7 +389,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611676518" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611933030" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -433,7 +400,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611676518" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611933030" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -455,7 +422,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611676518"/>
+          <pm:border xmlns:pm="smNativeData" id="1611933030"/>
         </ext>
       </extLst>
     </border>
@@ -474,7 +441,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611676518">
+          <pm:border xmlns:pm="smNativeData" id="1611933030">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -498,7 +465,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611676518"/>
+          <pm:border xmlns:pm="smNativeData" id="1611933030"/>
         </ext>
       </extLst>
     </border>
@@ -538,7 +505,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,10 +521,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611676518" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611933030" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611676518" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611933030" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -824,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -837,268 +804,270 @@
     <col min="7" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611933030" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1107,16 +1076,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611933030" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1149,230 +1118,230 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611933030" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1381,16 +1350,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611933030" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1423,71 +1392,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1495,7 +1464,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1503,7 +1472,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1511,7 +1480,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1519,7 +1488,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1527,7 +1496,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1535,7 +1504,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1543,12 +1512,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1556,24 +1525,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611676518" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611933030" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1582,16 +1551,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611676518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611676518" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611676518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611933030" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC01_Test_Scenario.xlsx
+++ b/Testes/UC01_Test_Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611933030" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611933030" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611933030" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611933030"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611934086" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611934086" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611934086" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611934086"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Project Name</t>
   </si>
@@ -173,13 +173,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Popup Message: Operação cancelada</t>
-  </si>
-  <si>
-    <t>Popup Message: Insira os dados em falta</t>
-  </si>
-  <si>
-    <t>Popup Message "Esses dados já existem"</t>
+    <t>É lançada uma exceção</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -322,7 +316,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611933030" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611934086" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -337,7 +331,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611933030" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611934086" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -352,7 +346,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611933030" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611934086" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -367,7 +361,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611933030" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611934086" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -389,7 +383,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611933030" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611934086" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -400,7 +394,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611933030" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611934086" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -422,7 +416,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611933030"/>
+          <pm:border xmlns:pm="smNativeData" id="1611934086"/>
         </ext>
       </extLst>
     </border>
@@ -441,7 +435,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611933030">
+          <pm:border xmlns:pm="smNativeData" id="1611934086">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -465,7 +459,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611933030"/>
+          <pm:border xmlns:pm="smNativeData" id="1611934086"/>
         </ext>
       </extLst>
     </border>
@@ -479,7 +473,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -499,14 +493,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -521,10 +519,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611933030" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611934086" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611933030" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611934086" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -792,23 +790,23 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
     <col min="1" max="1" width="23.745902" customWidth="1" style="9"/>
-    <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
-    <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
-    <col min="6" max="6" width="21.729508" customWidth="1" style="11"/>
+    <col min="2" max="2" width="23.991803" customWidth="1" style="13"/>
+    <col min="3" max="5" width="23.991803" customWidth="1" style="14"/>
+    <col min="6" max="6" width="21.729508" customWidth="1" style="15"/>
     <col min="7" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -816,49 +814,49 @@
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -866,19 +864,19 @@
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -886,19 +884,19 @@
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -906,19 +904,19 @@
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -929,16 +927,16 @@
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -949,16 +947,16 @@
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -966,19 +964,19 @@
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -989,16 +987,16 @@
       <c r="B15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1009,65 +1007,65 @@
       <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>44</v>
+      <c r="D16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17"/>
+        <v>43</v>
+      </c>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>48</v>
+      <c r="D18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611933030" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611934086" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1076,16 +1074,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611934086" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611934086" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611934086" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611934086" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611933030" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611934086" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1151,16 +1149,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1168,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1185,16 +1183,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1202,16 +1200,16 @@
         <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1219,16 +1217,16 @@
         <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1236,16 +1234,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1253,16 +1251,16 @@
         <v>32</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1270,16 +1268,16 @@
         <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1287,61 +1285,61 @@
         <v>41</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611933030" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611934086" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1350,16 +1348,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611934086" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611934086" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611934086" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611934086" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611933030" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611934086" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1425,16 +1423,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1442,16 +1440,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1512,12 +1510,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1525,24 +1523,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611933030" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611934086" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1551,16 +1549,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611933030" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611933030" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611934086" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611934086" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611934086" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611934086" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611933030" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611934086" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
